--- a/3. PBI Teaching/PBI Teaching.xlsx
+++ b/3. PBI Teaching/PBI Teaching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINHTL3\rayopublic\3. PBI Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CE91C3-90B0-4136-8A97-9B88065937EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82365003-B350-4CF7-A295-C33E255CD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Phần</t>
   </si>
@@ -68,24 +68,10 @@
     <t>Rồi lại làm rõ đề bài</t>
   </si>
   <si>
-    <t>Xây dashboard vs kiến trúc sư và thợ xây</t>
-  </si>
-  <si>
-    <t>Người làm dashboard vừa đóng vai trò của một kiến trúc sư, vừa đóng vai trò của thợ xây</t>
-  </si>
-  <si>
     <t>Thiết kế data model</t>
   </si>
   <si>
-    <t>Bản vẽ của tòa nhà
-Tầng 1 là tầng trệt, chỉ trông xe. Page 1 là page giới thiệu
-Tầng thượng cũng không làm gì, chỉ phơi phóng, làm bàn thờ. Page cuối để mục lục.</t>
-  </si>
-  <si>
     <t>Load dữ liệu</t>
-  </si>
-  <si>
-    <t>Là cái móng, kết cấu của tòa nhà.</t>
   </si>
   <si>
     <t>DAX</t>
@@ -110,15 +96,6 @@
     <t>Thống nhất thuật ngữ</t>
   </si>
   <si>
-    <t>- Dashboard
-- Thiết kế
-- Mockup
-- BRD
-- Metric
-- Rule lấy dữ liệu
-- Các chiều báo cáo</t>
-  </si>
-  <si>
     <t>Người sử dụng</t>
   </si>
   <si>
@@ -128,9 +105,6 @@
     <t>- Có anh/chị nào làm báo cáo daily không? Có ai làm báo cáo real time không?</t>
   </si>
   <si>
-    <t>Ảnh hưởng trực tiếp đến data model</t>
-  </si>
-  <si>
     <t>Nguồn dữ liệu</t>
   </si>
   <si>
@@ -141,11 +115,6 @@
   </si>
   <si>
     <t>Nếu có rồi thì nguồn có đảm bảo hay không? Chưa có thì kéo ntn</t>
-  </si>
-  <si>
-    <t>Đừng chủ quan
-Chốt thật kĩ để tránh mất thời gian
-Đây là guideline để khi anh/chị nhận đề bài xây dựng dashboard mình xác định được hướng đi.</t>
   </si>
   <si>
     <t>Giám đốc
@@ -154,9 +123,6 @@
   </si>
   <si>
     <t>Sử dụng để làm gì</t>
-  </si>
-  <si>
-    <t>Để theo dõi tổng quan, để theo dõi chi tiết từng khách hàng, từng giao dịch</t>
   </si>
   <si>
     <t>Không rõ bên mình triển khai thế nào. Để publish được cần mua Power BI Service và phải trả tiền.
@@ -203,14 +169,140 @@
 Dashboard vs căn nhà
 Sợ nhất không ai dùng</t>
   </si>
+  <si>
+    <t>Cấu trúc thiết kế của một dashboard</t>
+  </si>
+  <si>
+    <t>Page 1 là page giới thiệu</t>
+  </si>
+  <si>
+    <t>Page cuối là phụ lục</t>
+  </si>
+  <si>
+    <t>Các page còn lại là nội dung dashboard, nơi thể hiện số liệu</t>
+  </si>
+  <si>
+    <t>Đi từ tổng quan đến đến chi tiết</t>
+  </si>
+  <si>
+    <t>Trong mỗi page ta cũng đi từ tổng quan đến chi tiết</t>
+  </si>
+  <si>
+    <t>- Số liệu gì quan trọng nhất để lên đầu
+- Mức độ chi tiết tăng dần khi đi dần xuống dưới</t>
+  </si>
+  <si>
+    <t>Workflow đầy đủ</t>
+  </si>
+  <si>
+    <t>- Làm rõ đề bài: Chốt thiết kế + metric + rule lấy dữ liệu
+- Thiết kế data model + Load dữ liệu 
+- DAX
+- Visualize
+- Check số
+- Publish
+- Nghiệm thu</t>
+  </si>
+  <si>
+    <t>Tên dashboard ở trên cùng. Bộ lọc cũng ở trên cùng hoặc ngoài lề bên trái</t>
+  </si>
+  <si>
+    <t>Ảnh hưởng trực tiếp đến data model
+Hay xuất phát từ yêu cầu như: chị muốn xem số liệu theo vùng miền và xem xu hướng theo thời gian</t>
+  </si>
+  <si>
+    <t>Hoặc mỗi page một chiều dữ liệu</t>
+  </si>
+  <si>
+    <t>Page tổng quan đặt trước, sau đó đến page chi tiết</t>
+  </si>
+  <si>
+    <t>Một page là chiều vùng miền, chi nhánh. Một page là chiều xu hướng theo thời gian.</t>
+  </si>
+  <si>
+    <t>Giới thiệu phần này trước để định hình được một dashboard cần được phác thảo như thế nào</t>
+  </si>
+  <si>
+    <t>Định nghĩa measure</t>
+  </si>
+  <si>
+    <t>Anh/chị đã nắm được khi nhận đề bài xây dựng dashboard có những nội dung nào mà mình cần làm rõ hay chưa?</t>
+  </si>
+  <si>
+    <t>Sau khi nhận đề bài, không bao giờ bắt tay ngay vào thiết kế. Thiết kế là việc cuối cùng. Việc đầu tiên cần làm là thiết kế data model + load dữ liệu vào dashboard.
+Là cái móng, kết cấu của tòa nhà.</t>
+  </si>
+  <si>
+    <t>Làm sạch dữ liệu</t>
+  </si>
+  <si>
+    <t>- Chiều dữ liệu: với báo cáo nghỉ việc của nhân sự, người xem là ban TGĐ, trưởng phòng, các GĐ chi nhánh. anh/chị thử liệt kê các chiều dữ liệu mà người xem sẽ quan tâm.</t>
+  </si>
+  <si>
+    <t>Dùng các trường nào phụ thuộc vào chiều dữ liệu báo cáo. Muốn thể hiện chiều dữ liệu nào thì khi load dữ liệu phải có trường dữ liệu của chiều đó.</t>
+  </si>
+  <si>
+    <t>Người làm dashboard vừa đóng vai trò của một kiến trúc sư, vừa đóng vai trò của thợ xây. Bản vẽ của tòa nhà
+Tầng 1 là tầng trệt, chỉ trông xe. Page 1 là page giới thiệu
+Tầng thượng cũng không làm gì, chỉ phơi phóng, làm bàn thờ. Page cuối để mục lục.</t>
+  </si>
+  <si>
+    <t>Một số thuật ngữ anh/chị nên làm quen khi làm việc với dashboard. Có thể với một vài anh/chị chưa làm dashboard, chưa làm dữ liệu bao giờ những thuật ngữ này còn mới mẻ. Trong buổi học hôm nay em sẽ sử dụng thường xuyên.
+- Dashboard
+- Thiết kế
+- Mockup (phác thảo)
+- Metric
+- Rule lấy dữ liệu
+- Các chiều báo cáo: VD trong báo cáo nghỉ việc của nhân sự:
++ giới tính 
++ chức danh: quản lý cấp cao, quản lý, nhân viên
++ phòng ban: theo phòng ban
++ xu hướng: theo thời gian
++ chức năng: sales, nhân sự, kế toán, IT. 
++ chia theo chi nhánh, HO
++ chi nhánh
++ thâm niên
++ Chia nhiều chiều để làm gì: tìm ra ai đang làm tốt, ai đang tệ
++ Vì vậy khi làm dashboard hoặc tiến hành phân tích dữ liệu, cố gắng tìm ra nhiều chiều dữ liệu mà anh/chị cho là có ích.
+- BRD
+- Trong phần còn lại của buổi học còn nhiều thuật ngữ mới nữa, ta sẽ giới thiệu và giải thích dần dần.</t>
+  </si>
+  <si>
+    <t>Dashboard sinh ra phải có mục đích. Để theo dõi tổng quan, để theo dõi chi tiết từng khách hàng, từng giao dịch</t>
+  </si>
+  <si>
+    <t>Anh/chị biết với người xây dựng dashboard và báo cáo nói chung. Điều gì sợ nhất.
+Hỏi trực tiếp, với anh, anh sợ điều gì.</t>
+  </si>
+  <si>
+    <t>Đừng chủ quan
+Chốt thật kĩ để tránh mất thời gian
+Em sẽ dành nhiều thời gian để anh/chị nắm đc cách làm rõ đề bài.
+Đây là guideline để khi anh/chị nhận đề bài xây dựng dashboard mình xác định được hướng đi.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -237,13 +329,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,211 +624,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="36" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="361.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="91.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="106.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    <row r="38" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3. PBI Teaching/PBI Teaching.xlsx
+++ b/3. PBI Teaching/PBI Teaching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINHTL3\rayopublic\3. PBI Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82365003-B350-4CF7-A295-C33E255CD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B2AE9-5D26-43B5-8C66-22205ABD134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24945" yWindow="4200" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,6 +278,7 @@
     <t>Đừng chủ quan
 Chốt thật kĩ để tránh mất thời gian
 Em sẽ dành nhiều thời gian để anh/chị nắm đc cách làm rõ đề bài.
+Hạn chế tình trạng hiểu lơ mơ, tốt nhất mọi thứ nên được nói cụ thể thông qua văn bản, email
 Đây là guideline để khi anh/chị nhận đề bài xây dựng dashboard mình xác định được hướng đi.</t>
   </si>
 </sst>
@@ -626,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="106.5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>

--- a/3. PBI Teaching/PBI Teaching.xlsx
+++ b/3. PBI Teaching/PBI Teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINHTL3\rayopublic\3. PBI Teaching\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Learn\1. Data Analyst\9. Sync\4. Python\0. rayopublic repo\rayopublic\3. PBI Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B2AE9-5D26-43B5-8C66-22205ABD134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46522ACC-4F4C-4E9D-B096-16945837255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24945" yWindow="4200" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Phần</t>
   </si>
@@ -280,6 +280,9 @@
 Em sẽ dành nhiều thời gian để anh/chị nắm đc cách làm rõ đề bài.
 Hạn chế tình trạng hiểu lơ mơ, tốt nhất mọi thứ nên được nói cụ thể thông qua văn bản, email
 Đây là guideline để khi anh/chị nhận đề bài xây dựng dashboard mình xác định được hướng đi.</t>
+  </si>
+  <si>
+    <t>Xem thông tin về bảng trong Power Query</t>
   </si>
 </sst>
 </file>
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +877,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="29" spans="2:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>12</v>

--- a/3. PBI Teaching/PBI Teaching.xlsx
+++ b/3. PBI Teaching/PBI Teaching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Learn\1. Data Analyst\9. Sync\4. Python\0. rayopublic repo\rayopublic\3. PBI Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46522ACC-4F4C-4E9D-B096-16945837255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F7A3E-337F-4AA7-B094-F5463584E56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Phần</t>
   </si>
@@ -245,6 +245,29 @@
     <t>Người làm dashboard vừa đóng vai trò của một kiến trúc sư, vừa đóng vai trò của thợ xây. Bản vẽ của tòa nhà
 Tầng 1 là tầng trệt, chỉ trông xe. Page 1 là page giới thiệu
 Tầng thượng cũng không làm gì, chỉ phơi phóng, làm bàn thờ. Page cuối để mục lục.</t>
+  </si>
+  <si>
+    <t>Dashboard sinh ra phải có mục đích. Để theo dõi tổng quan, để theo dõi chi tiết từng khách hàng, từng giao dịch</t>
+  </si>
+  <si>
+    <t>Anh/chị biết với người xây dựng dashboard và báo cáo nói chung. Điều gì sợ nhất.
+Hỏi trực tiếp, với anh, anh sợ điều gì.</t>
+  </si>
+  <si>
+    <t>Đừng chủ quan
+Chốt thật kĩ để tránh mất thời gian
+Em sẽ dành nhiều thời gian để anh/chị nắm đc cách làm rõ đề bài.
+Hạn chế tình trạng hiểu lơ mơ, tốt nhất mọi thứ nên được nói cụ thể thông qua văn bản, email
+Đây là guideline để khi anh/chị nhận đề bài xây dựng dashboard mình xác định được hướng đi.</t>
+  </si>
+  <si>
+    <t>Xem thông tin về bảng trong Power Query</t>
+  </si>
+  <si>
+    <t>Ai có quyền truy cập</t>
+  </si>
+  <si>
+    <t>Các bên phải trao đổi liên tục để chốt một đề bài final</t>
   </si>
   <si>
     <t>Một số thuật ngữ anh/chị nên làm quen khi làm việc với dashboard. Có thể với một vài anh/chị chưa làm dashboard, chưa làm dữ liệu bao giờ những thuật ngữ này còn mới mẻ. Trong buổi học hôm nay em sẽ sử dụng thường xuyên.
@@ -264,25 +287,47 @@
 + thâm niên
 + Chia nhiều chiều để làm gì: tìm ra ai đang làm tốt, ai đang tệ
 + Vì vậy khi làm dashboard hoặc tiến hành phân tích dữ liệu, cố gắng tìm ra nhiều chiều dữ liệu mà anh/chị cho là có ích.
++ Chiều dữ liệu có thể chia ra nhiều level: Level 1 là xu hướng, địa lý, khách hàng. Trong mỗi level lại chia thành các level nhỏ.
 - BRD
 - Trong phần còn lại của buổi học còn nhiều thuật ngữ mới nữa, ta sẽ giới thiệu và giải thích dần dần.</t>
   </si>
   <si>
-    <t>Dashboard sinh ra phải có mục đích. Để theo dõi tổng quan, để theo dõi chi tiết từng khách hàng, từng giao dịch</t>
-  </si>
-  <si>
-    <t>Anh/chị biết với người xây dựng dashboard và báo cáo nói chung. Điều gì sợ nhất.
-Hỏi trực tiếp, với anh, anh sợ điều gì.</t>
-  </si>
-  <si>
-    <t>Đừng chủ quan
-Chốt thật kĩ để tránh mất thời gian
-Em sẽ dành nhiều thời gian để anh/chị nắm đc cách làm rõ đề bài.
-Hạn chế tình trạng hiểu lơ mơ, tốt nhất mọi thứ nên được nói cụ thể thông qua văn bản, email
-Đây là guideline để khi anh/chị nhận đề bài xây dựng dashboard mình xác định được hướng đi.</t>
-  </si>
-  <si>
-    <t>Xem thông tin về bảng trong Power Query</t>
+    <t>Các biểu đồ thường dùng</t>
+  </si>
+  <si>
+    <t>Dạy chi tiết cách vẽ một biểu đồ</t>
+  </si>
+  <si>
+    <t>Dạy cách tương tác với 1 biểu đồ</t>
+  </si>
+  <si>
+    <t>Thay đổi hierachy về chiều dữ liệu
+dùng 1 biểu đồ tương tác với 1 biểu đồ khác
+dùng bộ lọc tương tác với 1 biểu đồ</t>
+  </si>
+  <si>
+    <t>Nhớ tắt Auto detect relationship trước</t>
+  </si>
+  <si>
+    <t>View
+- Column distribution
+- Column quality</t>
+  </si>
+  <si>
+    <t>- Quan sát thấy cột Store_name, Tỉnh có null =&gt; lọc
+- Dữ liệu chưa đồng nhất: TPHCM, Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Star Schema vs Bảng trải phẳng</t>
+  </si>
+  <si>
+    <t>Dim fact là gì</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Các nguyên tắc thiết kế 1 trang dashboard</t>
   </si>
 </sst>
 </file>
@@ -628,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,12 +718,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="361.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>58</v>
@@ -689,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -705,10 +750,10 @@
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -753,73 +798,70 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2"/>
+    <row r="17" spans="2:6" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -827,121 +869,181 @@
     </row>
     <row r="22" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" ht="61.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="136.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="5" t="s">
+    <row r="38" spans="2:6" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="91.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="5" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="91.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="106.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="5" t="s">
+    <row r="44" spans="2:6" ht="106.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+    <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>38</v>
       </c>
     </row>
